--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -1,33 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED5B0E0-5E34-4434-ABED-291B38D28171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B7F7E6-A692-459C-A17D-993C8A8B80B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="1620" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
     <sheet name="まとめ" sheetId="2" r:id="rId2"/>
     <sheet name="format" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -102,6 +113,42 @@
     <t>午前2</t>
     <rPh sb="0" eb="2">
       <t>ゴゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エ</t>
+  </si>
+  <si>
+    <t>ウ</t>
+  </si>
+  <si>
+    <t>ア</t>
+  </si>
+  <si>
+    <t>イ</t>
+  </si>
+  <si>
+    <t>DMZに侵入されたケースを考える</t>
+    <rPh sb="4" eb="6">
+      <t>シンニュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WAFはシグネチャで検知する</t>
+    <rPh sb="10" eb="12">
+      <t>ケンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -440,33 +487,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E36C20B-85CF-482F-AFCC-96B5EAD460E8}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1">
+        <v>45697</v>
+      </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="C2">
         <f>INT(SUM(C4:C28)*4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -480,153 +530,320 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <f>A4+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <f t="shared" ref="A6:A28" si="0">A5+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f>50000000</f>
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <f>E20/E21/8</f>
+        <v>10.416666666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -642,13 +859,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
@@ -667,6 +884,17 @@
       </c>
       <c r="D5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6">
+        <v>2010</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -686,9 +914,9 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -1,44 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B7F7E6-A692-459C-A17D-993C8A8B80B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22645F54-BBB7-4765-BC5C-E324BB1DBC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8400" yWindow="525" windowWidth="15570" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
     <sheet name="まとめ" sheetId="2" r:id="rId2"/>
     <sheet name="format" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -149,6 +138,85 @@
     <t>秋</t>
     <rPh sb="0" eb="1">
       <t>アキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>春</t>
+    <rPh sb="0" eb="1">
+      <t>ハル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSLを用いてPK</t>
+    <rPh sb="4" eb="5">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部DCはリスク移転</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール送信者を、通信確率前に認証する仕組み</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルータがどこに送るか探るために</t>
+    <rPh sb="7" eb="8">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェールソフト＝機能を制限して動作しつづける</t>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動規範</t>
+    <rPh sb="0" eb="4">
+      <t>コウドウキハン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -487,16 +555,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E36C20B-85CF-482F-AFCC-96B5EAD460E8}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -846,10 +914,355 @@
         <v>1</v>
       </c>
     </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45699</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="C35">
+        <f>INT(SUM(C37:C61)*4)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <f>A37+1</f>
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <f t="shared" ref="A39:A61" si="1">A38+1</f>
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33" xr:uid="{906B84CE-1B12-49D2-9800-C31A338D4CEA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 B37:B61" xr:uid="{906B84CE-1B12-49D2-9800-C31A338D4CEA}">
       <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -859,13 +1272,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D6"/>
+  <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
@@ -895,6 +1308,14 @@
       </c>
       <c r="D6">
         <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7">
+        <v>2010</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -914,9 +1335,9 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22645F54-BBB7-4765-BC5C-E324BB1DBC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02B06BC-0DD5-4F5E-981F-CCF3285646DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="525" windowWidth="15570" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14325" yWindow="180" windowWidth="13560" windowHeight="12825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
-    <sheet name="まとめ" sheetId="2" r:id="rId2"/>
-    <sheet name="format" sheetId="3" r:id="rId3"/>
+    <sheet name="11" sheetId="13" r:id="rId2"/>
+    <sheet name="まとめ" sheetId="2" r:id="rId3"/>
+    <sheet name="format" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="30">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -218,6 +219,29 @@
     <rPh sb="0" eb="4">
       <t>コウドウキハン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通フレーム2007</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ASN 1=SNMPのプロトコル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ア</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -557,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E36C20B-85CF-482F-AFCC-96B5EAD460E8}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1271,6 +1295,427 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C455380B-D934-40E2-B730-03CAB883A40F}">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45703</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="C2">
+        <f>INT(SUM(C4:C28)*4)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f>F19/60*F20</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33" xr:uid="{A8438BDD-74D2-4979-AC28-0F297A318015}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
   <dimension ref="B2:D7"/>
   <sheetViews>
@@ -1327,7 +1772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
   <dimension ref="A1:D28"/>
   <sheetViews>

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02B06BC-0DD5-4F5E-981F-CCF3285646DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000FA227-4F52-41B1-9743-1BDF13A38D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14325" yWindow="180" windowWidth="13560" windowHeight="12825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14880" yWindow="1170" windowWidth="12780" windowHeight="12405" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
     <sheet name="11" sheetId="13" r:id="rId2"/>
-    <sheet name="まとめ" sheetId="2" r:id="rId3"/>
-    <sheet name="format" sheetId="3" r:id="rId4"/>
+    <sheet name="12" sheetId="14" r:id="rId3"/>
+    <sheet name="まとめ" sheetId="2" r:id="rId4"/>
+    <sheet name="format" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'12'!$A$3:$E$28</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="33">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -242,6 +246,30 @@
   </si>
   <si>
     <t>ア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MPLS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理策への潜在的影響</t>
+    <rPh sb="0" eb="3">
+      <t>カンリサク</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>センザイテキエイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセスポイントの選択に用いられる</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モチ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -581,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E36C20B-85CF-482F-AFCC-96B5EAD460E8}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1298,7 +1326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C455380B-D934-40E2-B730-03CAB883A40F}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -1716,11 +1744,429 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385664C7-CE99-462B-A20B-48DB40FFF729}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45704</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="C2">
+        <f>INT(SUM(C4:C28)*4)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:E28" xr:uid="{385664C7-CE99-462B-A20B-48DB40FFF729}"/>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 H4:H9" xr:uid="{14606216-9A6E-4B3E-900C-18205B94AC4A}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D7"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1761,6 +2207,31 @@
       </c>
       <c r="C7" t="s">
         <v>18</v>
+      </c>
+      <c r="D7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <v>2011</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
+        <v>2012</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1772,7 +2243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
   <dimension ref="A1:D28"/>
   <sheetViews>

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -1,38 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000FA227-4F52-41B1-9743-1BDF13A38D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8660C43D-B05E-42B6-8889-80572F628DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="1170" windowWidth="12780" windowHeight="12405" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10968" yWindow="576" windowWidth="12624" windowHeight="12264" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
     <sheet name="11" sheetId="13" r:id="rId2"/>
     <sheet name="12" sheetId="14" r:id="rId3"/>
-    <sheet name="まとめ" sheetId="2" r:id="rId4"/>
-    <sheet name="format" sheetId="3" r:id="rId5"/>
+    <sheet name="13" sheetId="15" r:id="rId4"/>
+    <sheet name="まとめ" sheetId="2" r:id="rId5"/>
+    <sheet name="format" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'12'!$A$3:$E$28</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="33">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -301,12 +313,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -322,10 +340,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -613,10 +632,10 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1330,9 +1349,9 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1747,13 +1766,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385664C7-CE99-462B-A20B-48DB40FFF729}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2162,14 +2181,395 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4736D946-6674-47FE-A959-A69010FFD709}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45710</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="C2">
+        <f>INT(SUM(C4:C28)*4)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 H4:H6" xr:uid="{8AA0D5D4-011C-47F7-8621-7928261C0293}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
@@ -2232,6 +2632,17 @@
       </c>
       <c r="D9">
         <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>2013</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2243,7 +2654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -2251,9 +2662,9 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8660C43D-B05E-42B6-8889-80572F628DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F37A3D-4071-4DA8-A73B-1C4B605ADFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10968" yWindow="576" windowWidth="12624" windowHeight="12264" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14085" yWindow="345" windowWidth="15075" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
     <sheet name="11" sheetId="13" r:id="rId2"/>
     <sheet name="12" sheetId="14" r:id="rId3"/>
     <sheet name="13" sheetId="15" r:id="rId4"/>
-    <sheet name="まとめ" sheetId="2" r:id="rId5"/>
-    <sheet name="format" sheetId="3" r:id="rId6"/>
+    <sheet name="14" sheetId="16" r:id="rId5"/>
+    <sheet name="まとめ" sheetId="2" r:id="rId6"/>
+    <sheet name="format" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'12'!$A$3:$E$28</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="33">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -632,10 +633,10 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1349,9 +1350,9 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1770,9 +1771,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2184,13 +2185,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4736D946-6674-47FE-A959-A69010FFD709}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2562,14 +2563,422 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0640DAE-9BB2-478D-9E5F-0B4338ECC297}">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45711</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="C2">
+        <f>INT(SUM(C4:C28)*4)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 H4:I9" xr:uid="{970B929A-20EB-4240-889F-110B62604C1C}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D10"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
@@ -2643,6 +3052,17 @@
       </c>
       <c r="D10">
         <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>2014</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2654,7 +3074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -2662,9 +3082,9 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F37A3D-4071-4DA8-A73B-1C4B605ADFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D59EE71-BA55-46CF-B0F7-C7F2441A2793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14085" yWindow="345" windowWidth="15075" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="12" sheetId="14" r:id="rId3"/>
     <sheet name="13" sheetId="15" r:id="rId4"/>
     <sheet name="14" sheetId="16" r:id="rId5"/>
-    <sheet name="まとめ" sheetId="2" r:id="rId6"/>
-    <sheet name="format" sheetId="3" r:id="rId7"/>
+    <sheet name="15" sheetId="17" r:id="rId6"/>
+    <sheet name="まとめ" sheetId="2" r:id="rId7"/>
+    <sheet name="format" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'12'!$A$3:$E$28</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="33">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -364,6 +365,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>579578</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C12CA1B-FFAC-0865-C5ED-A51D03EB2972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5463540" y="2164080"/>
+          <a:ext cx="5281118" cy="2484335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -633,10 +683,10 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1350,9 +1400,9 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1771,9 +1821,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2189,9 +2239,9 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2566,13 +2616,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0640DAE-9BB2-478D-9E5F-0B4338ECC297}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2971,14 +3021,369 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45D0B6C-4FC4-4E7C-96B9-4657963DB106}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45711</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2">
+        <f>INT(SUM(C4:C28)*4)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33" xr:uid="{1138699D-DC55-4DBE-89C0-FDFCF77AD19E}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
+  <dimension ref="B2:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
@@ -3063,6 +3468,17 @@
       </c>
       <c r="D11">
         <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>2015</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3074,7 +3490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -3082,9 +3498,9 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D59EE71-BA55-46CF-B0F7-C7F2441A2793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8597726-9090-43E4-9E2A-3F12AE1FFBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15735" yWindow="0" windowWidth="12870" windowHeight="15585" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -19,34 +19,24 @@
     <sheet name="13" sheetId="15" r:id="rId4"/>
     <sheet name="14" sheetId="16" r:id="rId5"/>
     <sheet name="15" sheetId="17" r:id="rId6"/>
-    <sheet name="まとめ" sheetId="2" r:id="rId7"/>
-    <sheet name="format" sheetId="3" r:id="rId8"/>
+    <sheet name="16" sheetId="18" r:id="rId7"/>
+    <sheet name="まとめ" sheetId="2" r:id="rId8"/>
+    <sheet name="format" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'12'!$A$3:$E$28</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="33">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -683,10 +673,10 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1400,9 +1390,9 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1821,9 +1811,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2239,9 +2229,9 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2620,9 +2610,9 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3028,9 +3018,9 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3376,14 +3366,368 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FAC679-0877-46E6-88E4-35B609355E54}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45717</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2">
+        <f>INT(SUM(C4:C28)*4)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33" xr:uid="{DF617E88-2EB1-4359-8EE8-3F108A4B3F83}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
@@ -3479,6 +3823,17 @@
       </c>
       <c r="D12">
         <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
+        <v>2016</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3490,7 +3845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -3498,9 +3853,9 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8597726-9090-43E4-9E2A-3F12AE1FFBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCD1C29-77A8-4197-91D2-22BCDC5A5319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15735" yWindow="0" windowWidth="12870" windowHeight="15585" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11460" yWindow="600" windowWidth="11592" windowHeight="10680" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -26,17 +26,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'12'!$A$3:$E$28</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="35">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -272,6 +283,26 @@
       <t>センタク</t>
     </rPh>
     <rPh sb="12" eb="13">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>32オクテットのネットワーク識別子</t>
+    <rPh sb="14" eb="17">
+      <t>シキベツシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続するアクセスポイントの選択に用いられる</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
       <t>モチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -673,10 +704,10 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1390,9 +1421,9 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1811,9 +1842,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2229,9 +2260,9 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2610,9 +2641,9 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3018,9 +3049,9 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3367,18 +3398,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FAC679-0877-46E6-88E4-35B609355E54}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3389,13 +3420,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:8">
       <c r="C2">
         <f>INT(SUM(C4:C28)*4)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3409,7 +3440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3419,8 +3450,17 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <f>A4+1</f>
         <v>2</v>
@@ -3431,8 +3471,17 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <f t="shared" ref="A6:A28" si="0">A5+1</f>
         <v>3</v>
@@ -3443,8 +3492,17 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3455,8 +3513,17 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3467,8 +3534,17 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3480,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:8">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3491,8 +3567,11 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3503,8 +3582,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3516,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:8">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3528,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:8">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3540,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:8">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3552,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:8">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3711,7 +3793,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33" xr:uid="{DF617E88-2EB1-4359-8EE8-3F108A4B3F83}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 G4:G8" xr:uid="{DF617E88-2EB1-4359-8EE8-3F108A4B3F83}">
       <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3723,11 +3805,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
@@ -3853,9 +3935,9 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8597726-9090-43E4-9E2A-3F12AE1FFBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C37A458-1AA0-4D84-A27D-B5C4626FE5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15735" yWindow="0" windowWidth="12870" windowHeight="15585" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15630" yWindow="0" windowWidth="13275" windowHeight="15585" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="14" sheetId="16" r:id="rId5"/>
     <sheet name="15" sheetId="17" r:id="rId6"/>
     <sheet name="16" sheetId="18" r:id="rId7"/>
-    <sheet name="まとめ" sheetId="2" r:id="rId8"/>
-    <sheet name="format" sheetId="3" r:id="rId9"/>
+    <sheet name="17" sheetId="19" r:id="rId8"/>
+    <sheet name="まとめ" sheetId="2" r:id="rId9"/>
+    <sheet name="format" sheetId="3" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'12'!$A$3:$E$28</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="33">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -1382,6 +1383,208 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2">
+        <f>INT(SUM(C4:C28)*4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33" xr:uid="{99518225-CF94-4EDB-B4F9-CC0276E728F0}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C455380B-D934-40E2-B730-03CAB883A40F}">
   <dimension ref="A1:L28"/>
@@ -3720,137 +3923,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6">
-        <v>2010</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7">
-        <v>2010</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8">
-        <v>2011</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9">
-        <v>2012</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10">
-        <v>2013</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11">
-        <v>2014</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12">
-        <v>2015</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13">
-        <v>2016</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6107E2A7-C607-427C-827A-A8833D120E10}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84699E3-C937-4AFC-A17E-EFF2AD54C58D}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3862,15 +3939,17 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1">
+        <v>45718</v>
+      </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="C2">
         <f>INT(SUM(C4:C28)*4)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3889,6 +3968,12 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
     </row>
@@ -3897,35 +3982,71 @@
         <f>A4+1</f>
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
         <f t="shared" ref="A6:A28" si="0">A5+1</f>
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10">
+      <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3933,116 +4054,350 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33" xr:uid="{99518225-CF94-4EDB-B4F9-CC0276E728F0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33" xr:uid="{AB9A6B70-9DBA-431E-80B0-4750BED38AA6}">
       <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
+  <dimension ref="B2:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6">
+        <v>2010</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7">
+        <v>2010</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <v>2011</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
+        <v>2012</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>2013</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>2014</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>2015</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
+        <v>2016</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6107E2A7-C607-427C-827A-A8833D120E10}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C37A458-1AA0-4D84-A27D-B5C4626FE5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD7051D-A731-4FC3-AA03-CAD713C19783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15630" yWindow="0" windowWidth="13275" windowHeight="15585" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14100" yWindow="105" windowWidth="14340" windowHeight="13950" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="15" sheetId="17" r:id="rId6"/>
     <sheet name="16" sheetId="18" r:id="rId7"/>
     <sheet name="17" sheetId="19" r:id="rId8"/>
-    <sheet name="まとめ" sheetId="2" r:id="rId9"/>
-    <sheet name="format" sheetId="3" r:id="rId10"/>
+    <sheet name="18" sheetId="20" r:id="rId9"/>
+    <sheet name="まとめ" sheetId="2" r:id="rId10"/>
+    <sheet name="format" sheetId="3" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'12'!$A$3:$E$28</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="34">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -277,6 +278,25 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>webサーバーのファイルのコンテンツ編集とバージョン管理をブラウザ上で行えるようにした規格</t>
+    <rPh sb="18" eb="20">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -306,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +336,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,11 +359,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1384,6 +1411,154 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
+  <dimension ref="B2:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6">
+        <v>2010</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7">
+        <v>2010</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <v>2011</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
+        <v>2012</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>2013</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>2014</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>2015</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
+        <v>2016</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14">
+        <v>2017</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15">
+        <v>2018</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6107E2A7-C607-427C-827A-A8833D120E10}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -3926,7 +4101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84699E3-C937-4AFC-A17E-EFF2AD54C58D}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -4277,127 +4452,358 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAD9949-27D0-4B7A-85A7-950A34503CF3}">
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45724</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2">
+        <f>INT(SUM(C4:C28)*4)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6">
-        <v>2010</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7">
-        <v>2010</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D7">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8">
-        <v>2011</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9">
-        <v>2012</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10">
-        <v>2013</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11">
-        <v>2014</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12">
-        <v>2015</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13">
-        <v>2016</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>80</v>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6107E2A7-C607-427C-827A-A8833D120E10}"/>
-  </hyperlinks>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33" xr:uid="{416B334A-8F55-4AFF-9C2A-8C3F403F8007}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD7051D-A731-4FC3-AA03-CAD713C19783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CC72F5-4310-4BB4-AC6D-6CBEE85468DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="105" windowWidth="14340" windowHeight="13950" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14610" yWindow="555" windowWidth="14340" windowHeight="13950" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="34">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -4453,10 +4453,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAD9949-27D0-4B7A-85A7-950A34503CF3}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4464,7 +4464,7 @@
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4475,13 +4475,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:9">
       <c r="C2">
         <f>INT(SUM(C4:C28)*4)</f>
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4494,8 +4494,17 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4505,8 +4514,17 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <f>A4+1</f>
         <v>2</v>
@@ -4517,8 +4535,17 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <f t="shared" ref="A6:A28" si="0">A5+1</f>
         <v>3</v>
@@ -4529,8 +4556,17 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="G6" s="4">
+        <v>19</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4541,8 +4577,17 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4554,7 +4599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:9">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4566,7 +4611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:9">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4578,7 +4623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:9">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4590,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:9">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4602,7 +4647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:9">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4614,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:9">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4626,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:9">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4638,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:9">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4800,7 +4845,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33" xr:uid="{416B334A-8F55-4AFF-9C2A-8C3F403F8007}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 H4:H7" xr:uid="{416B334A-8F55-4AFF-9C2A-8C3F403F8007}">
       <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CC72F5-4310-4BB4-AC6D-6CBEE85468DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E63F9E2-55A8-407E-9BA6-119C183DC0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14610" yWindow="555" windowWidth="14340" windowHeight="13950" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11112" yWindow="0" windowWidth="12648" windowHeight="14736" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -22,23 +22,35 @@
     <sheet name="16" sheetId="18" r:id="rId7"/>
     <sheet name="17" sheetId="19" r:id="rId8"/>
     <sheet name="18" sheetId="20" r:id="rId9"/>
-    <sheet name="まとめ" sheetId="2" r:id="rId10"/>
-    <sheet name="format" sheetId="3" r:id="rId11"/>
+    <sheet name="19" sheetId="21" r:id="rId10"/>
+    <sheet name="まとめ" sheetId="2" r:id="rId11"/>
+    <sheet name="format" sheetId="3" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'12'!$A$3:$E$28</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="36">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -294,6 +306,32 @@
     </rPh>
     <rPh sb="43" eb="45">
       <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FIDO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正に計算資源を利用し、台帳への追記の計算する</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ケイサンシゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイサン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -701,10 +739,10 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1411,14 +1449,374 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283C3E49-A3FE-4172-815E-4683F38E33AA}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45724</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="C2">
+        <f>INT(SUM(C4:C28)*4)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33" xr:uid="{1B5B4DAE-822F-4133-AD08-5CFC9E5735A8}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D15"/>
+  <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
@@ -1547,6 +1945,17 @@
       </c>
       <c r="D15">
         <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16">
+        <v>2019</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +1967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -1566,9 +1975,9 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1768,9 +2177,9 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2189,9 +2598,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2607,9 +3016,9 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2988,9 +3397,9 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3396,9 +3805,9 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3751,9 +4160,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4105,9 +4514,9 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4455,13 +4864,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAD9949-27D0-4B7A-85A7-950A34503CF3}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E63F9E2-55A8-407E-9BA6-119C183DC0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC170B2-96AE-4871-8F8E-F8BDBE06F824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11112" yWindow="0" windowWidth="12648" windowHeight="14736" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -23,34 +23,24 @@
     <sheet name="17" sheetId="19" r:id="rId8"/>
     <sheet name="18" sheetId="20" r:id="rId9"/>
     <sheet name="19" sheetId="21" r:id="rId10"/>
-    <sheet name="まとめ" sheetId="2" r:id="rId11"/>
-    <sheet name="format" sheetId="3" r:id="rId12"/>
+    <sheet name="20" sheetId="22" r:id="rId11"/>
+    <sheet name="まとめ" sheetId="2" r:id="rId12"/>
+    <sheet name="format" sheetId="3" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'12'!$A$3:$E$28</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="36">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -739,10 +729,10 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1452,13 +1442,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283C3E49-A3FE-4172-815E-4683F38E33AA}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1809,14 +1799,368 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5633DFD7-B902-47B8-8AD6-EC7E0A4013A1}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45731</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2">
+        <f>INT(SUM(C4:C28)*4)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33" xr:uid="{8C24B35F-3F27-4B54-B0E3-46098DCC9DE0}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
+  <dimension ref="B2:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
@@ -1956,6 +2300,17 @@
       </c>
       <c r="D16">
         <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17">
+        <v>2020</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1967,7 +2322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -1975,9 +2330,9 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2177,9 +2532,9 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2598,9 +2953,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3016,9 +3371,9 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3397,9 +3752,9 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3805,9 +4160,9 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4160,9 +4515,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4514,9 +4869,9 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4868,9 +5223,9 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC170B2-96AE-4871-8F8E-F8BDBE06F824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93FE216-5B48-44E0-92CB-31D1E108C02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9795" yWindow="2085" windowWidth="14790" windowHeight="12210" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -24,8 +24,9 @@
     <sheet name="18" sheetId="20" r:id="rId9"/>
     <sheet name="19" sheetId="21" r:id="rId10"/>
     <sheet name="20" sheetId="22" r:id="rId11"/>
-    <sheet name="まとめ" sheetId="2" r:id="rId12"/>
-    <sheet name="format" sheetId="3" r:id="rId13"/>
+    <sheet name="21" sheetId="23" r:id="rId12"/>
+    <sheet name="まとめ" sheetId="2" r:id="rId13"/>
+    <sheet name="format" sheetId="3" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'12'!$A$3:$E$28</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="37">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -323,6 +324,10 @@
     <rPh sb="19" eb="21">
       <t>ケイサン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ループバックアドレス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2153,11 +2158,395 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845289E5-5C0C-45A8-A66E-2D63DA84AB3D}">
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45732</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="C2">
+        <f>INT(SUM(C4:C28)*4)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 H5:H6" xr:uid="{4C3BF4F3-28A4-448C-8165-1A16F180DCFF}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
+  <dimension ref="B2:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2311,6 +2700,14 @@
       </c>
       <c r="D17">
         <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18">
+        <v>2021</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2322,7 +2719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
   <dimension ref="A1:D28"/>
   <sheetViews>

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93FE216-5B48-44E0-92CB-31D1E108C02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53997BEA-A11F-470E-8830-3CD1B3BF064B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9795" yWindow="2085" windowWidth="14790" windowHeight="12210" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -25,23 +25,35 @@
     <sheet name="19" sheetId="21" r:id="rId10"/>
     <sheet name="20" sheetId="22" r:id="rId11"/>
     <sheet name="21" sheetId="23" r:id="rId12"/>
-    <sheet name="まとめ" sheetId="2" r:id="rId13"/>
-    <sheet name="format" sheetId="3" r:id="rId14"/>
+    <sheet name="22" sheetId="24" r:id="rId13"/>
+    <sheet name="まとめ" sheetId="2" r:id="rId14"/>
+    <sheet name="format" sheetId="3" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'12'!$A$3:$E$28</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="40">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -328,6 +340,30 @@
   </si>
   <si>
     <t>ループバックアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SNTP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時刻合わせのプロトコルNTP</t>
+    <rPh sb="0" eb="2">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時刻合わせのためのプロトコル</t>
+    <rPh sb="0" eb="2">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -734,10 +770,10 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1451,9 +1487,9 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1811,9 +1847,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2161,13 +2197,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845289E5-5C0C-45A8-A66E-2D63DA84AB3D}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2542,14 +2578,378 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0E54B1-5B9D-4204-994D-8E81E76BF137}">
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2">
+        <f>INT(SUM(C4:C28)*4)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33" xr:uid="{1BEEFF38-19AF-45C9-8CCB-58FD5F70411F}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
+  <dimension ref="B2:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
@@ -2708,6 +3108,20 @@
       </c>
       <c r="C18" t="s">
         <v>18</v>
+      </c>
+      <c r="D18">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19">
+        <v>2022</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2719,7 +3133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -2727,9 +3141,9 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2929,9 +3343,9 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3350,9 +3764,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3768,9 +4182,9 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4149,9 +4563,9 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4557,9 +4971,9 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4912,9 +5326,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5266,9 +5680,9 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5620,9 +6034,9 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53997BEA-A11F-470E-8830-3CD1B3BF064B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C75D0B3-978A-4C91-AB06-10AD82F58DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8805" yWindow="90" windowWidth="12285" windowHeight="11295" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -32,28 +32,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'12'!$A$3:$E$28</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="40">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -770,10 +759,10 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1487,9 +1476,9 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1847,9 +1836,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2201,9 +2190,9 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2579,18 +2568,18 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0E54B1-5B9D-4204-994D-8E81E76BF137}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2599,13 +2588,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:9">
       <c r="C2">
         <f>INT(SUM(C4:C28)*4)</f>
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2618,8 +2607,17 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2629,8 +2627,17 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <f>A4+1</f>
         <v>2</v>
@@ -2641,8 +2648,17 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <f t="shared" ref="A6:A28" si="0">A5+1</f>
         <v>3</v>
@@ -2653,8 +2669,17 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="G6">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2666,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:9">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2678,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:9">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2690,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:9">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2702,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:9">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2714,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:9">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2726,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:9">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2738,7 +2763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:9">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2750,7 +2775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:9">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2762,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:9">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2933,7 +2958,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33" xr:uid="{1BEEFF38-19AF-45C9-8CCB-58FD5F70411F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 H4:H6" xr:uid="{1BEEFF38-19AF-45C9-8CCB-58FD5F70411F}">
       <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2945,11 +2970,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
   <dimension ref="B2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
@@ -3141,9 +3166,9 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3343,9 +3368,9 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3764,9 +3789,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4182,9 +4207,9 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4563,9 +4588,9 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4971,9 +4996,9 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5326,9 +5351,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5680,9 +5705,9 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6034,9 +6059,9 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C75D0B3-978A-4C91-AB06-10AD82F58DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BA67A1-75F3-47EA-84F0-74C6E7BF99D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8805" yWindow="90" windowWidth="12285" windowHeight="11295" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -26,11 +26,13 @@
     <sheet name="20" sheetId="22" r:id="rId11"/>
     <sheet name="21" sheetId="23" r:id="rId12"/>
     <sheet name="22" sheetId="24" r:id="rId13"/>
-    <sheet name="まとめ" sheetId="2" r:id="rId14"/>
-    <sheet name="format" sheetId="3" r:id="rId15"/>
+    <sheet name="23S" sheetId="25" r:id="rId14"/>
+    <sheet name="まとめ" sheetId="2" r:id="rId15"/>
+    <sheet name="format" sheetId="3" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'12'!$A$3:$E$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'23S'!$A$3:$E$28</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="43">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -352,6 +354,42 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>識別、防御、検知、対応、復旧</t>
+    <rPh sb="0" eb="2">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フッキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPDUなる制御フレームを交換</t>
+    <rPh sb="6" eb="8">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トランクポート：VLANタグをやり取りするポート</t>
+    <rPh sb="17" eb="18">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2570,7 +2608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0E54B1-5B9D-4204-994D-8E81E76BF137}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -2967,11 +3005,420 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAC04C8-6718-463D-B7E7-4E8678D8E7B9}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45738</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="C2">
+        <f>INT(SUM(C4:C28)*4)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:E28" xr:uid="{ADAC04C8-6718-463D-B7E7-4E8678D8E7B9}"/>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 J4:J7" xr:uid="{6D57A240-D594-4B85-87F8-E1267865A112}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D19"/>
+  <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3147,6 +3594,17 @@
       </c>
       <c r="D19">
         <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20">
+        <v>2023</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3158,7 +3616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
   <dimension ref="A1:D28"/>
   <sheetViews>

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BA67A1-75F3-47EA-84F0-74C6E7BF99D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F38860-8C43-47E1-A78A-B1223DAA58E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6525" yWindow="240" windowWidth="21555" windowHeight="14925" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -26,13 +26,13 @@
     <sheet name="20" sheetId="22" r:id="rId11"/>
     <sheet name="21" sheetId="23" r:id="rId12"/>
     <sheet name="22" sheetId="24" r:id="rId13"/>
-    <sheet name="23S" sheetId="25" r:id="rId14"/>
+    <sheet name="23" sheetId="25" r:id="rId14"/>
     <sheet name="まとめ" sheetId="2" r:id="rId15"/>
     <sheet name="format" sheetId="3" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'12'!$A$3:$E$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'23S'!$A$3:$E$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'23'!$A$3:$E$28</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="45">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -393,6 +393,47 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>クリプトジャッキング＝他人のリソースを不正に利用し暗号資産のマイニングを行い報酬を得る攻撃</t>
+    <rPh sb="11" eb="13">
+      <t>タニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>アンゴウシサン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホウシュウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール本文含めて暗号化するのはIMAPS</t>
+    <rPh sb="3" eb="5">
+      <t>ホンブン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>アンゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -455,12 +496,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3006,10 +3048,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAC04C8-6718-463D-B7E7-4E8678D8E7B9}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3401,11 +3443,346 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45739</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5">
+        <f>INT(SUM(C33:C57)*4)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5">
+        <v>1</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="5">
+        <f>A33+1</f>
+        <v>2</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="5">
+        <f t="shared" ref="A35:A57" si="1">A34+1</f>
+        <v>3</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="5">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A3:E28" xr:uid="{ADAC04C8-6718-463D-B7E7-4E8678D8E7B9}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 J4:J7" xr:uid="{6D57A240-D594-4B85-87F8-E1267865A112}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J7 B4:B29 B33:B57" xr:uid="{6D57A240-D594-4B85-87F8-E1267865A112}">
       <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3415,10 +3792,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D20"/>
+  <dimension ref="B2:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3604,6 +3981,17 @@
         <v>18</v>
       </c>
       <c r="D20">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21">
+        <v>2023</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
         <v>84</v>
       </c>
     </row>

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F38860-8C43-47E1-A78A-B1223DAA58E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D38CAB7-A50C-4E3B-9054-D6ED0B8C9091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="240" windowWidth="21555" windowHeight="14925" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20685" windowHeight="14925" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'12'!$A$3:$E$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'23'!$A$3:$E$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'23'!$A$32:$K$57</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="45">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -496,13 +496,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3050,8 +3049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAC04C8-6718-463D-B7E7-4E8678D8E7B9}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3293,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:11">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3305,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:11">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3317,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:11">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3329,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:11">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3341,7 +3340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:11">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3353,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:11">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3368,7 +3367,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:11">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3383,7 +3382,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:11">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3395,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:11">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3407,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:11">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3419,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:11">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3431,7 +3430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:11">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3443,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -3454,216 +3453,259 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5">
+    <row r="31" spans="1:11">
+      <c r="C31">
         <f>INT(SUM(C33:C57)*4)</f>
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="5" t="s">
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="5">
-        <v>1</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="5">
+      <c r="I32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
         <f>A33+1</f>
         <v>2</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="5">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>7</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
         <f t="shared" ref="A35:A57" si="1">A34+1</f>
         <v>3</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="5">
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>12</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="5">
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="5">
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="5">
+    <row r="38" spans="1:11">
+      <c r="A38">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="5">
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="5">
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="5">
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="5">
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="5">
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="5">
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="5">
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="5">
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="5">
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="5">
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="5">
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
@@ -3671,118 +3713,118 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="5">
+      <c r="A49">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="5">
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="5">
+      <c r="A50">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="5">
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="5">
+      <c r="A51">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="5">
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="5">
+      <c r="A52">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="5">
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="5">
+      <c r="A53">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="5">
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="5">
+      <c r="A54">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="5">
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="5">
+      <c r="A55">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="5">
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="5">
+      <c r="A56">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="5">
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="5">
+      <c r="A57">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="5">
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E28" xr:uid="{ADAC04C8-6718-463D-B7E7-4E8678D8E7B9}"/>
+  <autoFilter ref="A32:K57" xr:uid="{ADAC04C8-6718-463D-B7E7-4E8678D8E7B9}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J7 B4:B29 B33:B57" xr:uid="{6D57A240-D594-4B85-87F8-E1267865A112}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J7 B4:B29 B33:B57 J33:J36" xr:uid="{6D57A240-D594-4B85-87F8-E1267865A112}">
       <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3794,7 +3836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
   <dimension ref="B2:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D38CAB7-A50C-4E3B-9054-D6ED0B8C9091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61B3091-B27A-426D-AC80-9F4E5D6EE311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20685" windowHeight="14925" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -27,8 +27,9 @@
     <sheet name="21" sheetId="23" r:id="rId12"/>
     <sheet name="22" sheetId="24" r:id="rId13"/>
     <sheet name="23" sheetId="25" r:id="rId14"/>
-    <sheet name="まとめ" sheetId="2" r:id="rId15"/>
-    <sheet name="format" sheetId="3" r:id="rId16"/>
+    <sheet name="24" sheetId="26" r:id="rId15"/>
+    <sheet name="まとめ" sheetId="2" r:id="rId16"/>
+    <sheet name="format" sheetId="3" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'12'!$A$3:$E$28</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="45">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -3049,8 +3050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAC04C8-6718-463D-B7E7-4E8678D8E7B9}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3833,6 +3834,210 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF49389-1AAE-44A8-9406-5A010ABFD62E}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2">
+        <f>INT(SUM(C4:C28)*4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33" xr:uid="{C449D2A5-3CE4-4001-A850-D1BDDEC6479C}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
   <dimension ref="B2:D21"/>
   <sheetViews>
@@ -4046,7 +4251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
   <dimension ref="A1:D28"/>
   <sheetViews>

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61B3091-B27A-426D-AC80-9F4E5D6EE311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCABC32-8431-489E-9BCC-749FC6F575C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11100" yWindow="255" windowWidth="16080" windowHeight="14925" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="45">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -3838,7 +3838,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3854,7 +3854,7 @@
         <v>45745</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3880,6 +3880,9 @@
     <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4039,10 +4042,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D21"/>
+  <dimension ref="B2:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4240,6 +4243,14 @@
       </c>
       <c r="D21">
         <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22">
+        <v>2024</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCABC32-8431-489E-9BCC-749FC6F575C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A0BA50-4CAC-459D-9A97-8BF66B349346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="255" windowWidth="16080" windowHeight="14925" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="1050" windowWidth="21540" windowHeight="11295" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -34,6 +34,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'12'!$A$3:$E$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'23'!$A$32:$K$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'24'!$A$3:$D$28</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="45">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -3835,10 +3836,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF49389-1AAE-44A8-9406-5A010ABFD62E}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3846,7 +3847,7 @@
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3857,13 +3858,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:8">
       <c r="C2">
         <f>INT(SUM(C4:C28)*4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3876,163 +3877,373 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <f>A4+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <f t="shared" ref="A6:A28" si="0">A5+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33" xr:uid="{C449D2A5-3CE4-4001-A850-D1BDDEC6479C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 G4:G9" xr:uid="{C449D2A5-3CE4-4001-A850-D1BDDEC6479C}">
       <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4045,7 +4256,7 @@
   <dimension ref="B2:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4251,6 +4462,9 @@
       </c>
       <c r="C22" t="s">
         <v>18</v>
+      </c>
+      <c r="D22">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A0BA50-4CAC-459D-9A97-8BF66B349346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3AC7E3-CC50-40AC-B783-DE61D3DAF83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1050" windowWidth="21540" windowHeight="11295" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14880" yWindow="210" windowWidth="13560" windowHeight="15120" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'12'!$A$3:$E$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'23'!$A$32:$K$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'24'!$A$3:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'24'!$A$33:$H$58</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="49">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -434,6 +434,46 @@
     <rPh sb="8" eb="11">
       <t>アンゴウカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MITRE Attackはサイバー攻撃の内容をまとめたナレッジベース</t>
+    <rPh sb="17" eb="19">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PQC;量子コンピュータによる解読に体制を持つ暗号化方式</t>
+    <rPh sb="4" eb="6">
+      <t>リョウシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイドク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイセイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Strict-Transport-Security</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X-Frame-Options</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3836,10 +3876,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF49389-1AAE-44A8-9406-5A010ABFD62E}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4240,10 +4280,443 @@
         <v>1</v>
       </c>
     </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="C32">
+        <f>INT(SUM(C34:C58)*4)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <f>A34+1</f>
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35">
+        <v>7</v>
+      </c>
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <f t="shared" ref="A36:A58" si="1">A35+1</f>
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36">
+        <v>11</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>14</v>
+      </c>
+      <c r="J37" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>19</v>
+      </c>
+      <c r="J39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>24</v>
+      </c>
+      <c r="J41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>25</v>
+      </c>
+      <c r="J42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="3">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A33:H58" xr:uid="{4DF49389-1AAE-44A8-9406-5A010ABFD62E}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 G4:G9" xr:uid="{C449D2A5-3CE4-4001-A850-D1BDDEC6479C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G9 B4:B30 B34:B58 J34:J42" xr:uid="{C449D2A5-3CE4-4001-A850-D1BDDEC6479C}">
       <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4253,10 +4726,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D22"/>
+  <dimension ref="B2:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4465,6 +4938,17 @@
       </c>
       <c r="D22">
         <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23">
+        <v>2024</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3AC7E3-CC50-40AC-B783-DE61D3DAF83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA50FBDF-8988-4A20-9F72-228E97770A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="210" windowWidth="13560" windowHeight="15120" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="49">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -3876,10 +3876,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF49389-1AAE-44A8-9406-5A010ABFD62E}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85:C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4712,11 +4712,314 @@
         <v>0</v>
       </c>
     </row>
+    <row r="63" spans="1:3">
+      <c r="B63" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="C64">
+        <f>INT(SUM(C66:C90)*4)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>12</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>17</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>18</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>19</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>20</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>22</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>23</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>24</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>25</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A33:H58" xr:uid="{4DF49389-1AAE-44A8-9406-5A010ABFD62E}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G9 B4:B30 B34:B58 J34:J42" xr:uid="{C449D2A5-3CE4-4001-A850-D1BDDEC6479C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G9 B4:B30 B34:B58 J34:J42 B66:B90" xr:uid="{C449D2A5-3CE4-4001-A850-D1BDDEC6479C}">
       <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4726,10 +5029,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D23"/>
+  <dimension ref="B2:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4949,6 +5252,17 @@
       </c>
       <c r="D23">
         <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24">
+        <v>2024</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA50FBDF-8988-4A20-9F72-228E97770A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3110889-1132-43BD-98D7-8A039067128F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15810" yWindow="0" windowWidth="13710" windowHeight="15585" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="51">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -476,6 +476,41 @@
     <t>X-Frame-Options</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>他人のサーバーを不正に利用して暗号資産のマイニングを行う手法</t>
+    <rPh sb="0" eb="2">
+      <t>タニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>アンゴウシサン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SOAR:セキュリティにかかわる設定を自動化する製品</t>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -3089,10 +3124,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAC04C8-6718-463D-B7E7-4E8678D8E7B9}">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3754,7 +3789,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:10">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -3766,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:10">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -3778,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:10">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -3790,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:10">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3802,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:10">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -3814,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:10">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -3826,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:10">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -3838,7 +3873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:10">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -3850,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:10">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -3859,6 +3894,411 @@
         <v>13</v>
       </c>
       <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45753</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="C61">
+        <f>INT(SUM(C63:C87)*4)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>2</v>
+      </c>
+      <c r="J62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64">
+        <f>A63+1</f>
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>9</v>
+      </c>
+      <c r="I64" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65">
+        <f t="shared" ref="A65:A87" si="2">A64+1</f>
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>12</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>49</v>
+      </c>
+      <c r="H66">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
+        <v>11</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>18</v>
+      </c>
+      <c r="I67" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>19</v>
+      </c>
+      <c r="I68" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>24</v>
+      </c>
+      <c r="I69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87">
         <v>1</v>
       </c>
     </row>
@@ -3866,7 +4306,7 @@
   <autoFilter ref="A32:K57" xr:uid="{ADAC04C8-6718-463D-B7E7-4E8678D8E7B9}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J7 B4:B29 B33:B57 J33:J36" xr:uid="{6D57A240-D594-4B85-87F8-E1267865A112}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J7 B4:B29 B33:B57 J33:J36 B63:B87 I63:I69" xr:uid="{6D57A240-D594-4B85-87F8-E1267865A112}">
       <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3878,8 +4318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF49389-1AAE-44A8-9406-5A010ABFD62E}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85:C90"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65:I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5029,10 +5469,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D24"/>
+  <dimension ref="B2:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5263,6 +5703,17 @@
       </c>
       <c r="D24">
         <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25">
+        <v>2023</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3110889-1132-43BD-98D7-8A039067128F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82EC0B3-4891-4531-95B8-E54B690F928A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15810" yWindow="0" windowWidth="13710" windowHeight="15585" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="0" windowWidth="14685" windowHeight="15585" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="51">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -573,12 +573,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3126,7 +3127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAC04C8-6718-463D-B7E7-4E8678D8E7B9}">
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+    <sheetView topLeftCell="A80" workbookViewId="0">
       <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
@@ -4316,10 +4317,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF49389-1AAE-44A8-9406-5A010ABFD62E}">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65:I67"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5345,7 +5346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>16</v>
       </c>
@@ -5356,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>17</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>18</v>
       </c>
@@ -5378,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>19</v>
       </c>
@@ -5389,7 +5390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>20</v>
       </c>
@@ -5400,7 +5401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>21</v>
       </c>
@@ -5411,7 +5412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>22</v>
       </c>
@@ -5422,7 +5423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>23</v>
       </c>
@@ -5433,7 +5434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>24</v>
       </c>
@@ -5444,7 +5445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>25</v>
       </c>
@@ -5452,6 +5453,471 @@
         <v>12</v>
       </c>
       <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="B93" s="1">
+        <v>45759</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="C94">
+        <f>INT(SUM(C96:C120)*4)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
+        <v>2</v>
+      </c>
+      <c r="J95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>2</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97">
+        <f>A96+1</f>
+        <v>2</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>9</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J97" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98">
+        <f t="shared" ref="A98:A120" si="2">A97+1</f>
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>16</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>18</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>23</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J100" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>25</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J101" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A111">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
         <v>1</v>
       </c>
     </row>
@@ -5459,7 +5925,7 @@
   <autoFilter ref="A33:H58" xr:uid="{4DF49389-1AAE-44A8-9406-5A010ABFD62E}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G9 B4:B30 B34:B58 J34:J42 B66:B90" xr:uid="{C449D2A5-3CE4-4001-A850-D1BDDEC6479C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G9 B4:B30 B34:B58 J34:J42 B66:B90 B96:B120 I96:I101" xr:uid="{C449D2A5-3CE4-4001-A850-D1BDDEC6479C}">
       <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5472,7 +5938,7 @@
   <dimension ref="B2:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82EC0B3-4891-4531-95B8-E54B690F928A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDCEFAD-6559-43FC-A84B-245FF428895F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="0" windowWidth="14685" windowHeight="15585" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15315" yWindow="165" windowWidth="13605" windowHeight="11295" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="51">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -573,13 +573,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -4317,10 +4316,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF49389-1AAE-44A8-9406-5A010ABFD62E}">
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="J96" sqref="J96"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5509,10 +5508,10 @@
       <c r="H96">
         <v>2</v>
       </c>
-      <c r="I96" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J96" s="5">
+      <c r="I96" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96">
         <v>1</v>
       </c>
     </row>
@@ -5533,10 +5532,10 @@
       <c r="H97">
         <v>9</v>
       </c>
-      <c r="I97" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J97" s="5">
+      <c r="I97" t="s">
+        <v>11</v>
+      </c>
+      <c r="J97">
         <v>1</v>
       </c>
     </row>
@@ -5557,10 +5556,10 @@
       <c r="H98">
         <v>16</v>
       </c>
-      <c r="I98" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J98" s="5">
+      <c r="I98" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98">
         <v>1</v>
       </c>
     </row>
@@ -5581,10 +5580,10 @@
       <c r="H99">
         <v>18</v>
       </c>
-      <c r="I99" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J99" s="5">
+      <c r="I99" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99">
         <v>1</v>
       </c>
     </row>
@@ -5605,10 +5604,10 @@
       <c r="H100">
         <v>23</v>
       </c>
-      <c r="I100" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J100" s="5">
+      <c r="I100" t="s">
+        <v>11</v>
+      </c>
+      <c r="J100">
         <v>1</v>
       </c>
     </row>
@@ -5629,10 +5628,10 @@
       <c r="H101">
         <v>25</v>
       </c>
-      <c r="I101" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J101" s="5">
+      <c r="I101" t="s">
+        <v>12</v>
+      </c>
+      <c r="J101">
         <v>1</v>
       </c>
     </row>
@@ -5801,7 +5800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:8">
       <c r="A113">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -5816,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:8">
       <c r="A114">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -5831,7 +5830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:8">
       <c r="A115">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -5846,7 +5845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:8">
       <c r="A116">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -5861,7 +5860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:8">
       <c r="A117">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -5876,7 +5875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:8">
       <c r="A118">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -5891,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:8">
       <c r="A119">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -5906,7 +5905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:8">
       <c r="A120">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -5918,6 +5917,336 @@
         <v>0</v>
       </c>
       <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="B123" s="1">
+        <v>45760</v>
+      </c>
+      <c r="C123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="C124">
+        <f>INT(SUM(C126:C150)*4)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1</v>
+      </c>
+      <c r="G125" t="s">
+        <v>2</v>
+      </c>
+      <c r="H125" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>6</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128">
+        <v>3</v>
+      </c>
+      <c r="B128" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>6</v>
+      </c>
+      <c r="B131" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>7</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>9</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>10</v>
+      </c>
+      <c r="B135" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>12</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>13</v>
+      </c>
+      <c r="B138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>14</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>15</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>16</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>17</v>
+      </c>
+      <c r="B142" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>18</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>19</v>
+      </c>
+      <c r="B144" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>20</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>21</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>22</v>
+      </c>
+      <c r="B147" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>23</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>24</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>25</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150">
         <v>1</v>
       </c>
     </row>
@@ -5925,7 +6254,7 @@
   <autoFilter ref="A33:H58" xr:uid="{4DF49389-1AAE-44A8-9406-5A010ABFD62E}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G9 B4:B30 B34:B58 J34:J42 B66:B90 B96:B120 I96:I101" xr:uid="{C449D2A5-3CE4-4001-A850-D1BDDEC6479C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G9 B4:B30 B34:B58 J34:J42 B66:B90 B96:B120 I96:I101 B126:B150 G126:G127" xr:uid="{C449D2A5-3CE4-4001-A850-D1BDDEC6479C}">
       <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5937,7 +6266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
   <dimension ref="B2:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDCEFAD-6559-43FC-A84B-245FF428895F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044B1172-E674-4252-8D9A-377A42751388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15315" yWindow="165" windowWidth="13605" windowHeight="11295" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="3795" windowWidth="21600" windowHeight="13545" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -36,17 +36,28 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'23'!$A$32:$K$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'24'!$A$33:$H$58</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="51">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -3124,10 +3135,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAC04C8-6718-463D-B7E7-4E8678D8E7B9}">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3789,7 +3800,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:14">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -3801,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:14">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -3813,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:14">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -3825,7 +3836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:14">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3837,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:14">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -3849,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:14">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -3861,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:14">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -3873,7 +3884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:14">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -3885,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:14">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -3897,7 +3908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -3908,13 +3919,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:14">
       <c r="C61">
         <f>INT(SUM(C63:C87)*4)</f>
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -3933,8 +3944,17 @@
       <c r="J62" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="L62" t="s">
+        <v>1</v>
+      </c>
+      <c r="M62" t="s">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>1</v>
       </c>
@@ -3953,8 +3973,17 @@
       <c r="J63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64">
         <f>A63+1</f>
         <v>2</v>
@@ -3974,8 +4003,17 @@
       <c r="J64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="L64">
+        <v>5</v>
+      </c>
+      <c r="M64" t="s">
+        <v>13</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65">
         <f t="shared" ref="A65:A87" si="2">A64+1</f>
         <v>3</v>
@@ -3995,8 +4033,17 @@
       <c r="J65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="L65">
+        <v>7</v>
+      </c>
+      <c r="M65" t="s">
+        <v>13</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -4019,8 +4066,17 @@
       <c r="J66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="L66">
+        <v>8</v>
+      </c>
+      <c r="M66" t="s">
+        <v>14</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -4040,8 +4096,17 @@
       <c r="J67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="L67">
+        <v>10</v>
+      </c>
+      <c r="M67" t="s">
+        <v>14</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -4061,8 +4126,17 @@
       <c r="J68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="L68">
+        <v>16</v>
+      </c>
+      <c r="M68" t="s">
+        <v>14</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4082,8 +4156,17 @@
       <c r="J69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="L69">
+        <v>18</v>
+      </c>
+      <c r="M69" t="s">
+        <v>11</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -4094,8 +4177,17 @@
       <c r="C70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="L70">
+        <v>19</v>
+      </c>
+      <c r="M70" t="s">
+        <v>11</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -4106,8 +4198,17 @@
       <c r="C71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="L71">
+        <v>24</v>
+      </c>
+      <c r="M71" t="s">
+        <v>12</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -4119,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:14">
       <c r="A73">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -4131,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:14">
       <c r="A74">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -4143,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:14">
       <c r="A75">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -4158,7 +4259,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:14">
       <c r="A76">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -4170,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:14">
       <c r="A77">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -4182,7 +4283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:14">
       <c r="A78">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -4194,7 +4295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:14">
       <c r="A79">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -4206,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:14">
       <c r="A80">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -4218,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:8">
       <c r="A81">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -4230,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:8">
       <c r="A82">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -4242,7 +4343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:8">
       <c r="A83">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -4254,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:8">
       <c r="A84">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -4266,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:8">
       <c r="A85">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -4278,7 +4379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:8">
       <c r="A86">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -4290,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:8">
       <c r="A87">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -4299,6 +4400,405 @@
         <v>13</v>
       </c>
       <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45766</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="C92">
+        <f>INT(SUM(C94:C118)*4)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>2</v>
+      </c>
+      <c r="H93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <f>A94+1</f>
+        <v>2</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>5</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <f t="shared" ref="A96:A118" si="3">A95+1</f>
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>7</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>8</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>9</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>11</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>19</v>
+      </c>
+      <c r="G100" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118">
         <v>1</v>
       </c>
     </row>
@@ -4306,7 +4806,7 @@
   <autoFilter ref="A32:K57" xr:uid="{ADAC04C8-6718-463D-B7E7-4E8678D8E7B9}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J7 B4:B29 B33:B57 J33:J36 B63:B87 I63:I69" xr:uid="{6D57A240-D594-4B85-87F8-E1267865A112}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J7 B4:B29 B33:B57 J33:J36 B63:B87 I63:I69 M63:M71 B94:B118 G94:G100" xr:uid="{6D57A240-D594-4B85-87F8-E1267865A112}">
       <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4318,7 +4818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF49389-1AAE-44A8-9406-5A010ABFD62E}">
   <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+    <sheetView topLeftCell="A120" workbookViewId="0">
       <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
@@ -6267,7 +6767,7 @@
   <dimension ref="B2:D25"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B23" sqref="B23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/2025/past_problems/past_problems_am2.xlsx
+++ b/2025/past_problems/past_problems_am2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044B1172-E674-4252-8D9A-377A42751388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287002D1-7387-4F4E-86DC-829BF838BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="3795" windowWidth="21600" windowHeight="13545" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15405" yWindow="75" windowWidth="13440" windowHeight="15435" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="12" r:id="rId1"/>
@@ -36,28 +36,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'23'!$A$32:$K$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'24'!$A$33:$H$58</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="51">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -3137,7 +3126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAC04C8-6718-463D-B7E7-4E8678D8E7B9}">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
@@ -4816,10 +4805,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF49389-1AAE-44A8-9406-5A010ABFD62E}">
-  <dimension ref="A1:K150"/>
+  <dimension ref="A1:K180"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="F132" sqref="F132"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6684,7 +6673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>20</v>
       </c>
@@ -6695,7 +6684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>21</v>
       </c>
@@ -6706,7 +6695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>22</v>
       </c>
@@ -6717,7 +6706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>23</v>
       </c>
@@ -6728,7 +6717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>24</v>
       </c>
@@ -6739,7 +6728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>25</v>
       </c>
@@ -6747,6 +6736,327 @@
         <v>12</v>
       </c>
       <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="B153" s="1">
+        <v>45767</v>
+      </c>
+      <c r="C153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="C154">
+        <f>INT(SUM(C156:C180)*4)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" t="s">
+        <v>4</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1</v>
+      </c>
+      <c r="G155" t="s">
+        <v>2</v>
+      </c>
+      <c r="H155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>6</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157">
+        <v>2</v>
+      </c>
+      <c r="B157" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158">
+        <v>3</v>
+      </c>
+      <c r="B158" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159">
+        <v>4</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160">
+        <v>5</v>
+      </c>
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>6</v>
+      </c>
+      <c r="B161" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>8</v>
+      </c>
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>9</v>
+      </c>
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>10</v>
+      </c>
+      <c r="B165" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>11</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>12</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>13</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>14</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>15</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>16</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>17</v>
+      </c>
+      <c r="B172" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>18</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>19</v>
+      </c>
+      <c r="B174" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>20</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>21</v>
+      </c>
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>22</v>
+      </c>
+      <c r="B177" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>23</v>
+      </c>
+      <c r="B178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>24</v>
+      </c>
+      <c r="B179" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>25</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180">
         <v>1</v>
       </c>
     </row>
@@ -6754,7 +7064,7 @@
   <autoFilter ref="A33:H58" xr:uid="{4DF49389-1AAE-44A8-9406-5A010ABFD62E}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G9 B4:B30 B34:B58 J34:J42 B66:B90 B96:B120 I96:I101 B126:B150 G126:G127" xr:uid="{C449D2A5-3CE4-4001-A850-D1BDDEC6479C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G9 B4:B30 B34:B58 J34:J42 B66:B90 B96:B120 I96:I101 B126:B150 G126:G127 B156:B180 G156:G161" xr:uid="{C449D2A5-3CE4-4001-A850-D1BDDEC6479C}">
       <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>
